--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nrg2</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nrg2</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1058776666666667</v>
+        <v>0.023695</v>
       </c>
       <c r="H2">
-        <v>0.317633</v>
+        <v>0.04739</v>
       </c>
       <c r="I2">
-        <v>0.1394352143571743</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="J2">
-        <v>0.1394352143571743</v>
+        <v>0.04521726519033903</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1605563333333333</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N2">
-        <v>0.481669</v>
+        <v>0.168642</v>
       </c>
       <c r="O2">
-        <v>0.01905578313479183</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P2">
-        <v>0.02595755287029415</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q2">
-        <v>0.01699932994188889</v>
+        <v>0.001997986095</v>
       </c>
       <c r="R2">
-        <v>0.152993969477</v>
+        <v>0.007991944379999999</v>
       </c>
       <c r="S2">
-        <v>0.002657047206143525</v>
+        <v>0.0005409181426742007</v>
       </c>
       <c r="T2">
-        <v>0.003619396948657149</v>
+        <v>0.0003483424317659068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,19 +602,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1058776666666667</v>
+        <v>0.023695</v>
       </c>
       <c r="H3">
-        <v>0.317633</v>
+        <v>0.04739</v>
       </c>
       <c r="I3">
-        <v>0.1394352143571743</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="J3">
-        <v>0.1394352143571743</v>
+        <v>0.04521726519033903</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5664446666666666</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N3">
-        <v>1.699334</v>
+        <v>0.481669</v>
       </c>
       <c r="O3">
-        <v>0.06722903109309158</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P3">
-        <v>0.09157855736883302</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q3">
-        <v>0.05997383960244444</v>
+        <v>0.003804382318333333</v>
       </c>
       <c r="R3">
-        <v>0.5397645564219999</v>
+        <v>0.02282629391</v>
       </c>
       <c r="S3">
-        <v>0.009374094361490361</v>
+        <v>0.001029966836508658</v>
       </c>
       <c r="T3">
-        <v>0.01276927577724402</v>
+        <v>0.0009949226809825109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1058776666666667</v>
+        <v>0.023695</v>
       </c>
       <c r="H4">
-        <v>0.317633</v>
+        <v>0.04739</v>
       </c>
       <c r="I4">
-        <v>0.1394352143571743</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="J4">
-        <v>0.1394352143571743</v>
+        <v>0.04521726519033903</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7207635</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N4">
-        <v>13.441527</v>
+        <v>1.727297</v>
       </c>
       <c r="O4">
-        <v>0.797660292168841</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P4">
-        <v>0.7243753443962271</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q4">
-        <v>0.7115787575985</v>
+        <v>0.01364276747166667</v>
       </c>
       <c r="R4">
-        <v>4.269472545591</v>
+        <v>0.08185660483</v>
       </c>
       <c r="S4">
-        <v>0.1112219338227686</v>
+        <v>0.003693529429547874</v>
       </c>
       <c r="T4">
-        <v>0.1010034314209399</v>
+        <v>0.003567858762123051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1058776666666667</v>
+        <v>0.023695</v>
       </c>
       <c r="H5">
-        <v>0.317633</v>
+        <v>0.04739</v>
       </c>
       <c r="I5">
-        <v>0.1394352143571743</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="J5">
-        <v>0.1394352143571743</v>
+        <v>0.04521726519033903</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08863199999999999</v>
+        <v>9.042617</v>
       </c>
       <c r="N5">
-        <v>0.265896</v>
+        <v>18.085234</v>
       </c>
       <c r="O5">
-        <v>0.01051937432637061</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P5">
-        <v>0.01432936202661938</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q5">
-        <v>0.009384149351999998</v>
+        <v>0.214264809815</v>
       </c>
       <c r="R5">
-        <v>0.08445734416799999</v>
+        <v>0.85705923926</v>
       </c>
       <c r="S5">
-        <v>0.001466771214100842</v>
+        <v>0.05800827305836213</v>
       </c>
       <c r="T5">
-        <v>0.001998017665783227</v>
+        <v>0.03735637854517534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.023695</v>
+      </c>
+      <c r="H6">
+        <v>0.04739</v>
+      </c>
+      <c r="I6">
+        <v>0.06632634971345823</v>
+      </c>
+      <c r="J6">
+        <v>0.04521726519033903</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.1058776666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.317633</v>
-      </c>
-      <c r="I6">
-        <v>0.1394352143571743</v>
-      </c>
-      <c r="J6">
-        <v>0.1394352143571743</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.8891996666666667</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N6">
-        <v>2.667599</v>
+        <v>0.218831</v>
       </c>
       <c r="O6">
-        <v>0.105535519276905</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P6">
-        <v>0.1437591833380263</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q6">
-        <v>0.09414638590744445</v>
+        <v>0.001728400181666667</v>
       </c>
       <c r="R6">
-        <v>0.847317473167</v>
+        <v>0.01037040109</v>
       </c>
       <c r="S6">
-        <v>0.01471536775267094</v>
+        <v>0.0004679326940285261</v>
       </c>
       <c r="T6">
-        <v>0.02004509254455002</v>
+        <v>0.000452011495865592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,25 +844,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1126416666666667</v>
+        <v>0.023695</v>
       </c>
       <c r="H7">
-        <v>0.337925</v>
+        <v>0.04739</v>
       </c>
       <c r="I7">
-        <v>0.1483430399601053</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="J7">
-        <v>0.1483430399601053</v>
+        <v>0.04521726519033903</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1605563333333333</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N7">
-        <v>0.481669</v>
+        <v>1.209229</v>
       </c>
       <c r="O7">
-        <v>0.01905578313479183</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P7">
-        <v>0.02595755287029415</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q7">
-        <v>0.01808533298055556</v>
+        <v>0.009550893718333335</v>
       </c>
       <c r="R7">
-        <v>0.162767996825</v>
+        <v>0.05730536231000001</v>
       </c>
       <c r="S7">
-        <v>0.002826792799035525</v>
+        <v>0.002585729552336829</v>
       </c>
       <c r="T7">
-        <v>0.003850622302704591</v>
+        <v>0.002497751274426631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1126416666666667</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H8">
-        <v>0.337925</v>
+        <v>0.317633</v>
       </c>
       <c r="I8">
-        <v>0.1483430399601053</v>
+        <v>0.2963696622147411</v>
       </c>
       <c r="J8">
-        <v>0.1483430399601053</v>
+        <v>0.3030701750201088</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.5664446666666666</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N8">
-        <v>1.699334</v>
+        <v>0.168642</v>
       </c>
       <c r="O8">
-        <v>0.06722903109309158</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P8">
-        <v>0.09157855736883302</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q8">
-        <v>0.06380527132777777</v>
+        <v>0.008927710730999999</v>
       </c>
       <c r="R8">
-        <v>0.57424744195</v>
+        <v>0.053566264386</v>
       </c>
       <c r="S8">
-        <v>0.009972958845921647</v>
+        <v>0.002417014171935491</v>
       </c>
       <c r="T8">
-        <v>0.01358504159525359</v>
+        <v>0.002334776358495469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1126416666666667</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H9">
-        <v>0.337925</v>
+        <v>0.317633</v>
       </c>
       <c r="I9">
-        <v>0.1483430399601053</v>
+        <v>0.2963696622147411</v>
       </c>
       <c r="J9">
-        <v>0.1483430399601053</v>
+        <v>0.3030701750201088</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7207635</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N9">
-        <v>13.441527</v>
+        <v>0.481669</v>
       </c>
       <c r="O9">
-        <v>0.797660292168841</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P9">
-        <v>0.7243753443962271</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q9">
-        <v>0.7570380019125001</v>
+        <v>0.01699932994188889</v>
       </c>
       <c r="R9">
-        <v>4.542228011475</v>
+        <v>0.152993969477</v>
       </c>
       <c r="S9">
-        <v>0.1183273525957917</v>
+        <v>0.004602257243873594</v>
       </c>
       <c r="T9">
-        <v>0.1074560406598846</v>
+        <v>0.006668501285683011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1126416666666667</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H10">
-        <v>0.337925</v>
+        <v>0.317633</v>
       </c>
       <c r="I10">
-        <v>0.1483430399601053</v>
+        <v>0.2963696622147411</v>
       </c>
       <c r="J10">
-        <v>0.1483430399601053</v>
+        <v>0.3030701750201088</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08863199999999999</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N10">
-        <v>0.265896</v>
+        <v>1.727297</v>
       </c>
       <c r="O10">
-        <v>0.01051937432637061</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P10">
-        <v>0.01432936202661938</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q10">
-        <v>0.0099836562</v>
+        <v>0.06096072533344444</v>
       </c>
       <c r="R10">
-        <v>0.08985290579999999</v>
+        <v>0.548646528001</v>
       </c>
       <c r="S10">
-        <v>0.001560475966052102</v>
+        <v>0.01650399990568446</v>
       </c>
       <c r="T10">
-        <v>0.002125661123717615</v>
+        <v>0.02391368816605679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1058776666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.317633</v>
+      </c>
+      <c r="I11">
+        <v>0.2963696622147411</v>
+      </c>
+      <c r="J11">
+        <v>0.3030701750201088</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.1126416666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.337925</v>
-      </c>
-      <c r="I11">
-        <v>0.1483430399601053</v>
-      </c>
-      <c r="J11">
-        <v>0.1483430399601053</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8891996666666667</v>
+        <v>9.042617</v>
       </c>
       <c r="N11">
-        <v>2.667599</v>
+        <v>18.085234</v>
       </c>
       <c r="O11">
-        <v>0.105535519276905</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P11">
-        <v>0.1437591833380263</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q11">
-        <v>0.1001609324527778</v>
+        <v>0.9574111885203332</v>
       </c>
       <c r="R11">
-        <v>0.901448392075</v>
+        <v>5.744467131122</v>
       </c>
       <c r="S11">
-        <v>0.01565545975330438</v>
+        <v>0.2592015445782758</v>
       </c>
       <c r="T11">
-        <v>0.02132567427854494</v>
+        <v>0.2503823293192589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,51 +1163,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.02072366666666667</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H12">
-        <v>0.062171</v>
+        <v>0.317633</v>
       </c>
       <c r="I12">
-        <v>0.02729195868124497</v>
+        <v>0.2963696622147411</v>
       </c>
       <c r="J12">
-        <v>0.02729195868124497</v>
+        <v>0.3030701750201088</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1605563333333333</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N12">
-        <v>0.481669</v>
+        <v>0.218831</v>
       </c>
       <c r="O12">
-        <v>0.01905578313479183</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P12">
-        <v>0.02595755287029415</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q12">
-        <v>0.003327315933222223</v>
+        <v>0.007723105224777778</v>
       </c>
       <c r="R12">
-        <v>0.029945843399</v>
+        <v>0.06950794702300001</v>
       </c>
       <c r="S12">
-        <v>0.0005200696459535033</v>
+        <v>0.002090889293133049</v>
       </c>
       <c r="T12">
-        <v>0.0007084324604022997</v>
+        <v>0.003029621596671779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.02072366666666667</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H13">
-        <v>0.062171</v>
+        <v>0.317633</v>
       </c>
       <c r="I13">
-        <v>0.02729195868124497</v>
+        <v>0.2963696622147411</v>
       </c>
       <c r="J13">
-        <v>0.02729195868124497</v>
+        <v>0.3030701750201088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5664446666666666</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N13">
-        <v>1.699334</v>
+        <v>1.209229</v>
       </c>
       <c r="O13">
-        <v>0.06722903109309158</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P13">
-        <v>0.09157855736883302</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q13">
-        <v>0.01173881045711111</v>
+        <v>0.04267678166188889</v>
       </c>
       <c r="R13">
-        <v>0.105649294114</v>
+        <v>0.384091034957</v>
       </c>
       <c r="S13">
-        <v>0.001834811938772789</v>
+        <v>0.0115539570218387</v>
       </c>
       <c r="T13">
-        <v>0.002499358203798213</v>
+        <v>0.0167412582939429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02072366666666667</v>
+        <v>0.217892</v>
       </c>
       <c r="H14">
-        <v>0.062171</v>
+        <v>0.6536759999999999</v>
       </c>
       <c r="I14">
-        <v>0.02729195868124497</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="J14">
-        <v>0.02729195868124497</v>
+        <v>0.6237062891023433</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>6.7207635</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N14">
-        <v>13.441527</v>
+        <v>0.168642</v>
       </c>
       <c r="O14">
-        <v>0.797660292168841</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P14">
-        <v>0.7243753443962271</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q14">
-        <v>0.1392788625195</v>
+        <v>0.018372871332</v>
       </c>
       <c r="R14">
-        <v>0.8356731751170001</v>
+        <v>0.110237227992</v>
       </c>
       <c r="S14">
-        <v>0.0217697117355418</v>
+        <v>0.00497411841922629</v>
       </c>
       <c r="T14">
-        <v>0.01976962196897443</v>
+        <v>0.004804876290926584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02072366666666667</v>
+        <v>0.217892</v>
       </c>
       <c r="H15">
-        <v>0.062171</v>
+        <v>0.6536759999999999</v>
       </c>
       <c r="I15">
-        <v>0.02729195868124497</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="J15">
-        <v>0.02729195868124497</v>
+        <v>0.6237062891023433</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08863199999999999</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N15">
-        <v>0.265896</v>
+        <v>0.481669</v>
       </c>
       <c r="O15">
-        <v>0.01051937432637061</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P15">
-        <v>0.01432936202661938</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q15">
-        <v>0.001836780024</v>
+        <v>0.03498394058266666</v>
       </c>
       <c r="R15">
-        <v>0.016531020216</v>
+        <v>0.314855465244</v>
       </c>
       <c r="S15">
-        <v>0.0002870943294678559</v>
+        <v>0.009471261191835596</v>
       </c>
       <c r="T15">
-        <v>0.0003910763563590969</v>
+        <v>0.01372350872365317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02072366666666667</v>
+        <v>0.217892</v>
       </c>
       <c r="H16">
-        <v>0.062171</v>
+        <v>0.6536759999999999</v>
       </c>
       <c r="I16">
-        <v>0.02729195868124497</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="J16">
-        <v>0.02729195868124497</v>
+        <v>0.6237062891023433</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8891996666666667</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N16">
-        <v>2.667599</v>
+        <v>1.727297</v>
       </c>
       <c r="O16">
-        <v>0.105535519276905</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P16">
-        <v>0.1437591833380263</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q16">
-        <v>0.01842747749211111</v>
+        <v>0.1254547326413333</v>
       </c>
       <c r="R16">
-        <v>0.165847297429</v>
+        <v>1.129092593772</v>
       </c>
       <c r="S16">
-        <v>0.002880271031509023</v>
+        <v>0.03396457119489535</v>
       </c>
       <c r="T16">
-        <v>0.003923469691710935</v>
+        <v>0.04921341304472562</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1461,60 +1464,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5200893333333334</v>
+        <v>0.217892</v>
       </c>
       <c r="H17">
-        <v>1.560268</v>
+        <v>0.6536759999999999</v>
       </c>
       <c r="I17">
-        <v>0.6849297870014754</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="J17">
-        <v>0.6849297870014754</v>
+        <v>0.6237062891023433</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1605563333333333</v>
+        <v>9.042617</v>
       </c>
       <c r="N17">
-        <v>0.481669</v>
+        <v>18.085234</v>
       </c>
       <c r="O17">
-        <v>0.01905578313479183</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P17">
-        <v>0.02595755287029415</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q17">
-        <v>0.08350363636577779</v>
+        <v>1.970313903364</v>
       </c>
       <c r="R17">
-        <v>0.7515327272920002</v>
+        <v>11.821883420184</v>
       </c>
       <c r="S17">
-        <v>0.01305187348365927</v>
+        <v>0.5334264035970728</v>
       </c>
       <c r="T17">
-        <v>0.01777910115853011</v>
+        <v>0.51527681160363</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1523,117 +1526,117 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.5200893333333334</v>
+        <v>0.217892</v>
       </c>
       <c r="H18">
-        <v>1.560268</v>
+        <v>0.6536759999999999</v>
       </c>
       <c r="I18">
-        <v>0.6849297870014754</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="J18">
-        <v>0.6849297870014754</v>
+        <v>0.6237062891023433</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.5664446666666666</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N18">
-        <v>1.699334</v>
+        <v>0.218831</v>
       </c>
       <c r="O18">
-        <v>0.06722903109309158</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P18">
-        <v>0.09157855736883302</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q18">
-        <v>0.2946018290568889</v>
+        <v>0.01589384141733333</v>
       </c>
       <c r="R18">
-        <v>2.651416461512</v>
+        <v>0.143044572756</v>
       </c>
       <c r="S18">
-        <v>0.04604716594690679</v>
+        <v>0.004302966472558075</v>
       </c>
       <c r="T18">
-        <v>0.0627248817925372</v>
+        <v>0.006234839978295772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.217892</v>
+      </c>
+      <c r="H19">
+        <v>0.6536759999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.6099169019525148</v>
+      </c>
+      <c r="J19">
+        <v>0.6237062891023433</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.5200893333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.560268</v>
-      </c>
-      <c r="I19">
-        <v>0.6849297870014754</v>
-      </c>
-      <c r="J19">
-        <v>0.6849297870014754</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.7207635</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N19">
-        <v>13.441527</v>
+        <v>1.209229</v>
       </c>
       <c r="O19">
-        <v>0.797660292168841</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P19">
-        <v>0.7243753443962271</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q19">
-        <v>3.495397408206001</v>
+        <v>0.08782710842266667</v>
       </c>
       <c r="R19">
-        <v>20.972384449236</v>
+        <v>0.7904439758039999</v>
       </c>
       <c r="S19">
-        <v>0.546341294014739</v>
+        <v>0.02377758107692662</v>
       </c>
       <c r="T19">
-        <v>0.4961462503464282</v>
+        <v>0.03445283946111209</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.5200893333333334</v>
+        <v>0.009783999999999999</v>
       </c>
       <c r="H20">
-        <v>1.560268</v>
+        <v>0.029352</v>
       </c>
       <c r="I20">
-        <v>0.6849297870014754</v>
+        <v>0.02738708611928573</v>
       </c>
       <c r="J20">
-        <v>0.6849297870014754</v>
+        <v>0.02800627068720893</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.08863199999999999</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N20">
-        <v>0.265896</v>
+        <v>0.168642</v>
       </c>
       <c r="O20">
-        <v>0.01051937432637061</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P20">
-        <v>0.01432936202661938</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q20">
-        <v>0.046096557792</v>
+        <v>0.0008249966639999999</v>
       </c>
       <c r="R20">
-        <v>0.414869020128</v>
+        <v>0.004949979984</v>
       </c>
       <c r="S20">
-        <v>0.007205032816749813</v>
+        <v>0.0002233527371987499</v>
       </c>
       <c r="T20">
-        <v>0.009814606880759445</v>
+        <v>0.0002157532613883287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.5200893333333334</v>
+        <v>0.009783999999999999</v>
       </c>
       <c r="H21">
-        <v>1.560268</v>
+        <v>0.029352</v>
       </c>
       <c r="I21">
-        <v>0.6849297870014754</v>
+        <v>0.02738708611928573</v>
       </c>
       <c r="J21">
-        <v>0.6849297870014754</v>
+        <v>0.02800627068720893</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1739,276 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8891996666666667</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N21">
-        <v>2.667599</v>
+        <v>0.481669</v>
       </c>
       <c r="O21">
-        <v>0.105535519276905</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P21">
-        <v>0.1437591833380263</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q21">
-        <v>0.462463261836889</v>
+        <v>0.001570883165333333</v>
       </c>
       <c r="R21">
-        <v>4.162169356532001</v>
+        <v>0.014137948488</v>
       </c>
       <c r="S21">
-        <v>0.07228442073942064</v>
+        <v>0.0004252878467356281</v>
       </c>
       <c r="T21">
-        <v>0.09846494682322042</v>
+        <v>0.0006162264303059434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.009783999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.029352</v>
+      </c>
+      <c r="I22">
+        <v>0.02738708611928573</v>
+      </c>
+      <c r="J22">
+        <v>0.02800627068720893</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5757656666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.727297</v>
+      </c>
+      <c r="O22">
+        <v>0.05568721097278211</v>
+      </c>
+      <c r="P22">
+        <v>0.07890478884789671</v>
+      </c>
+      <c r="Q22">
+        <v>0.005633291282666666</v>
+      </c>
+      <c r="R22">
+        <v>0.050699621544</v>
+      </c>
+      <c r="S22">
+        <v>0.001525110442654416</v>
+      </c>
+      <c r="T22">
+        <v>0.00220982887499126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.009783999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.029352</v>
+      </c>
+      <c r="I23">
+        <v>0.02738708611928573</v>
+      </c>
+      <c r="J23">
+        <v>0.02800627068720893</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.042617</v>
+      </c>
+      <c r="N23">
+        <v>18.085234</v>
+      </c>
+      <c r="O23">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P23">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q23">
+        <v>0.08847296472799999</v>
+      </c>
+      <c r="R23">
+        <v>0.530837788368</v>
+      </c>
+      <c r="S23">
+        <v>0.02395243484292109</v>
+      </c>
+      <c r="T23">
+        <v>0.02313746408647365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.009783999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.029352</v>
+      </c>
+      <c r="I24">
+        <v>0.02738708611928573</v>
+      </c>
+      <c r="J24">
+        <v>0.02800627068720893</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.218831</v>
+      </c>
+      <c r="O24">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P24">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q24">
+        <v>0.0007136808346666667</v>
+      </c>
+      <c r="R24">
+        <v>0.006423127512</v>
+      </c>
+      <c r="S24">
+        <v>0.000193216015124503</v>
+      </c>
+      <c r="T24">
+        <v>0.0002799628914675428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.009783999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.029352</v>
+      </c>
+      <c r="I25">
+        <v>0.02738708611928573</v>
+      </c>
+      <c r="J25">
+        <v>0.02800627068720893</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N25">
+        <v>1.209229</v>
+      </c>
+      <c r="O25">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P25">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q25">
+        <v>0.003943698845333334</v>
+      </c>
+      <c r="R25">
+        <v>0.035493289608</v>
+      </c>
+      <c r="S25">
+        <v>0.001067684234651341</v>
+      </c>
+      <c r="T25">
+        <v>0.0015470351425822</v>
       </c>
     </row>
   </sheetData>
